--- a/Testapis/yatong_h5_out.xlsx
+++ b/Testapis/yatong_h5_out.xlsx
@@ -5,27 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guanauto-test\GuanAuto-Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guanauto-test\GuanAuto-Test\Testapis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="390" windowWidth="24240" windowHeight="12045"/>
   </bookViews>
   <sheets>
-    <sheet name="客户管理" sheetId="4" r:id="rId1"/>
-    <sheet name="已经调试过的数据" sheetId="2" r:id="rId2"/>
+    <sheet name="已经调试过的数据" sheetId="2" r:id="rId1"/>
+    <sheet name="客户管理" sheetId="4" r:id="rId2"/>
     <sheet name="旧" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">旧!$A$1:$L$175</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="825">
   <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3222,19 +3222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "phoneCanEdit": true,
- "namCustZh": "1054",
- "codCustPhone": "19321322232",
- "codCustPhoneFlag": "n",
- "contactNumberOneFlag": "n",
- "contactNumberTwoFlag": "n",
- "codIntentionLevel": "1",
- "dataList": []
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3267,6 +3254,73 @@
   </si>
   <si>
     <t>{"code":"MCGS"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logintype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_out_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_out_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_out_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phoneCanEdit":true,
+ "namCustZh":"1054",
+ "codCustPhone":"19321322232",
+ "codCustPhoneFlag":"n",
+ "contactNumberOneFlag":"n",
+ "contactNumberTwoFlag":"n",
+ "codIntentionLevel":"1",
+ "dataList":[],
+ "test":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend_result_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3311,7 +3365,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3326,7 +3380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3360,7 +3420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3435,6 +3495,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3740,28 +3815,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="34.125" customWidth="1"/>
-    <col min="8" max="8" width="35.625" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="6.375" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="45.75" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
+    <col min="12" max="12" width="30.125" customWidth="1"/>
+    <col min="13" max="13" width="19.625" customWidth="1"/>
+    <col min="14" max="14" width="16.375" customWidth="1"/>
+    <col min="15" max="15" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3778,118 +3854,1345 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
-        <v>804</v>
-      </c>
-      <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>796</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>808</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
-        <v>804</v>
-      </c>
-      <c r="B3" s="22">
-        <v>2</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>797</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>798</v>
+      <c r="L2" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>720</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="F3" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="1:12" ht="135" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
-        <v>804</v>
-      </c>
-      <c r="B4" s="22">
-        <v>3</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>800</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>801</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="L3" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="1" t="s">
+      <c r="M12" s="1"/>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" ht="81" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:17" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" s="29" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A23" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="M23" s="27"/>
+      <c r="N23" s="25">
+        <v>0</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" ht="135" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:17" ht="81" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:17" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" ht="81" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" ht="81" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="1:17" ht="135" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="81" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3900,27 +5203,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="45.75" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="30.125" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
+    <col min="12" max="12" width="34.125" customWidth="1"/>
+    <col min="13" max="13" width="35.625" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="6.375" customWidth="1"/>
+    <col min="16" max="16" width="10.25" customWidth="1"/>
+    <col min="17" max="17" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3937,1078 +5244,160 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>809</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>796</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>720</v>
+        <v>812</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>798</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="9"/>
+        <v>812</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:17" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>823</v>
+      </c>
       <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>761</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>761</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="1:12" ht="135" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12" ht="135" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-    </row>
-    <row r="33" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>788</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>789</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>783</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>784</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="M4" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
